--- a/medicine/Psychotrope/Ur-Krostitzer/Ur-Krostitzer.xlsx
+++ b/medicine/Psychotrope/Ur-Krostitzer/Ur-Krostitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ur-Krostitzer est une brasserie de Krostitz, dans le Land de Saxe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le droit de brassage est accordé en 1534 par le duc Georges de Saxe à Hans Wahl pour le domaine de Krostitz. Elle a le droit de vendre de la bière brune en 1738 et de la dünnbier et de la doppelbier en 1802. De 1867 à 1876, la brasserie et la malterie sont reconstruites, la modernisation industrielle arrive de 1884 à 1899.
 Le symbole de la marque est le portrait du roi suédois Gustave II Adolphe. En 1632, pendant la guerre de Trente Ans, il passe par Krostitz. Selon la légende, un brasseur lui apporte une boisson fraîche ; en remerciement, le roi offre au maître brasseur un anneau en or.
